--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F4D16-84B2-4405-9558-D4FD36802210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710210B-25BE-454B-A6D9-F484EEE4CF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,322 +347,322 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>19.6564840582842</v>
+        <v>0.13684728965076493</v>
       </c>
       <c r="B1">
-        <v>-70.790329878747158</v>
+        <v>-4.2936649931732941E-2</v>
       </c>
       <c r="C1">
-        <v>-147.40373492069142</v>
+        <v>-4.1904021269444862E-2</v>
       </c>
       <c r="D1">
-        <v>-1661.6099471815487</v>
+        <v>-2.5074788193824353E-2</v>
       </c>
       <c r="E1">
-        <v>-7.8162732384579172</v>
+        <v>-4.2144190316953038E-2</v>
       </c>
       <c r="F1">
-        <v>154.02121778373177</v>
+        <v>5.2032677254039483E-2</v>
       </c>
       <c r="G1">
-        <v>-1.6305320515257488E-2</v>
+        <v>-1.4240098920783805E-3</v>
       </c>
       <c r="H1">
-        <v>3.1435368726543724</v>
+        <v>5.454986260348018E-2</v>
       </c>
       <c r="I1">
-        <v>7.5041534395686513</v>
+        <v>8.0228174599146513E-3</v>
       </c>
       <c r="J1">
-        <v>-53.224689110137646</v>
+        <v>-4.7765116138354526E-2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-70.790329878747158</v>
+        <v>-4.2936649931732941E-2</v>
       </c>
       <c r="B2">
-        <v>1576.8803145260101</v>
+        <v>8.3325285417222825E-2</v>
       </c>
       <c r="C2">
-        <v>3111.9403510603402</v>
+        <v>7.7073012784778391E-2</v>
       </c>
       <c r="D2">
-        <v>5817.1532495724459</v>
+        <v>7.6479062085961051E-3</v>
       </c>
       <c r="E2">
-        <v>174.99287362429976</v>
+        <v>8.2201965666564222E-2</v>
       </c>
       <c r="F2">
-        <v>-111.28364805995707</v>
+        <v>-3.2752980893992804E-3</v>
       </c>
       <c r="G2">
-        <v>1.5622887590349768</v>
+        <v>1.1886906104814595E-2</v>
       </c>
       <c r="H2">
-        <v>-5.1564353568632821</v>
+        <v>-7.7955818913822512E-3</v>
       </c>
       <c r="I2">
-        <v>201.83815673257831</v>
+        <v>1.879976129726111E-2</v>
       </c>
       <c r="J2">
-        <v>140.72544334705464</v>
+        <v>1.1002571221228819E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-147.40373492069142</v>
+        <v>-4.1904021269444862E-2</v>
       </c>
       <c r="B3">
-        <v>3111.9403510603402</v>
+        <v>7.7073012784778391E-2</v>
       </c>
       <c r="C3">
-        <v>6828.1690818881916</v>
+        <v>7.9262603313462215E-2</v>
       </c>
       <c r="D3">
-        <v>29601.586708400941</v>
+        <v>1.8240638332720348E-2</v>
       </c>
       <c r="E3">
-        <v>345.35774692681133</v>
+        <v>7.603683579823288E-2</v>
       </c>
       <c r="F3">
-        <v>-143.88714928877084</v>
+        <v>-1.9848810236773149E-3</v>
       </c>
       <c r="G3">
-        <v>1.0876722762798021</v>
+        <v>3.8788106266051765E-3</v>
       </c>
       <c r="H3">
-        <v>-11.575339473896777</v>
+        <v>-8.2021119116517521E-3</v>
       </c>
       <c r="I3">
-        <v>390.74598727560573</v>
+        <v>1.7058332836921927E-2</v>
       </c>
       <c r="J3">
-        <v>38.157539011915183</v>
+        <v>1.3982824712937402E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-1661.6099471815487</v>
+        <v>-2.5074788193824353E-2</v>
       </c>
       <c r="B4">
-        <v>5817.1532495724459</v>
+        <v>7.6479062085961051E-3</v>
       </c>
       <c r="C4">
-        <v>29601.586708400941</v>
+        <v>1.8240638332720348E-2</v>
       </c>
       <c r="D4">
-        <v>2173569.9609549171</v>
+        <v>7.1098369504976028E-2</v>
       </c>
       <c r="E4">
-        <v>558.36734279567179</v>
+        <v>6.52583095067958E-3</v>
       </c>
       <c r="F4">
-        <v>21981.007804025994</v>
+        <v>1.609611432027807E-2</v>
       </c>
       <c r="G4">
-        <v>24.417196817929511</v>
+        <v>4.6222911542500456E-3</v>
       </c>
       <c r="H4">
-        <v>258.47339611735777</v>
+        <v>9.7222946573662459E-3</v>
       </c>
       <c r="I4">
-        <v>4977.3109443645426</v>
+        <v>1.1534474315720524E-2</v>
       </c>
       <c r="J4">
-        <v>-13250.22613870321</v>
+        <v>-2.5775008843957125E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7.8162732384579172</v>
+        <v>-4.2144190316953038E-2</v>
       </c>
       <c r="B5">
-        <v>174.99287362429976</v>
+        <v>8.2201965666564222E-2</v>
       </c>
       <c r="C5">
-        <v>345.35774692681133</v>
+        <v>7.603683579823288E-2</v>
       </c>
       <c r="D5">
-        <v>558.36734279567179</v>
+        <v>6.52583095067958E-3</v>
       </c>
       <c r="E5">
-        <v>19.500986894283113</v>
+        <v>8.1433329497313328E-2</v>
       </c>
       <c r="F5">
-        <v>-16.26760768875506</v>
+        <v>-4.2562480435373038E-3</v>
       </c>
       <c r="G5">
-        <v>0.16166999434118168</v>
+        <v>1.0935048380979123E-2</v>
       </c>
       <c r="H5">
-        <v>-0.63354276395579323</v>
+        <v>-8.5144903365562217E-3</v>
       </c>
       <c r="I5">
-        <v>21.484656612289122</v>
+        <v>1.7789397601107485E-2</v>
       </c>
       <c r="J5">
-        <v>15.588011576488917</v>
+        <v>1.0834179934270339E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>154.02121778373177</v>
+        <v>5.2032677254039483E-2</v>
       </c>
       <c r="B6">
-        <v>-111.28364805995707</v>
+        <v>-3.2752980893992804E-3</v>
       </c>
       <c r="C6">
-        <v>-143.88714928877084</v>
+        <v>-1.9848810236773149E-3</v>
       </c>
       <c r="D6">
-        <v>21981.007804025994</v>
+        <v>1.609611432027807E-2</v>
       </c>
       <c r="E6">
-        <v>-16.26760768875506</v>
+        <v>-4.2562480435373038E-3</v>
       </c>
       <c r="F6">
-        <v>5711.8633945339916</v>
+        <v>9.3635102322825833E-2</v>
       </c>
       <c r="G6">
-        <v>-0.14600453363123114</v>
+        <v>-6.1875007566759073E-4</v>
       </c>
       <c r="H6">
-        <v>106.22869530226785</v>
+        <v>8.9450383606090561E-2</v>
       </c>
       <c r="I6">
-        <v>743.13634752874157</v>
+        <v>3.8553069979247324E-2</v>
       </c>
       <c r="J6">
-        <v>-552.49229672567867</v>
+        <v>-2.4059643582785308E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-1.6305320515257488E-2</v>
+        <v>-1.4240098920783805E-3</v>
       </c>
       <c r="B7">
-        <v>1.5622887590349768</v>
+        <v>1.1886906104814595E-2</v>
       </c>
       <c r="C7">
-        <v>1.0876722762798021</v>
+        <v>3.8788106266051765E-3</v>
       </c>
       <c r="D7">
-        <v>24.417196817929511</v>
+        <v>4.6222911542500456E-3</v>
       </c>
       <c r="E7">
-        <v>0.16166999434118168</v>
+        <v>1.0935048380979123E-2</v>
       </c>
       <c r="F7">
-        <v>-0.14600453363123114</v>
+        <v>-6.1875007566759073E-4</v>
       </c>
       <c r="G7">
-        <v>7.8439438754066088E-2</v>
+        <v>8.5935270374796452E-2</v>
       </c>
       <c r="H7">
-        <v>-1.5010103842533792E-3</v>
+        <v>-3.2674737189062995E-4</v>
       </c>
       <c r="I7">
-        <v>0.49440448959522248</v>
+        <v>6.6307234553848121E-3</v>
       </c>
       <c r="J7">
-        <v>0.35276284711248257</v>
+        <v>3.9713105354018839E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.1435368726543724</v>
+        <v>5.454986260348018E-2</v>
       </c>
       <c r="B8">
-        <v>-5.1564353568632821</v>
+        <v>-7.7955818913822512E-3</v>
       </c>
       <c r="C8">
-        <v>-11.575339473896777</v>
+        <v>-8.2021119116517521E-3</v>
       </c>
       <c r="D8">
-        <v>258.47339611735777</v>
+        <v>9.7222946573662459E-3</v>
       </c>
       <c r="E8">
-        <v>-0.63354276395579323</v>
+        <v>-8.5144903365562217E-3</v>
       </c>
       <c r="F8">
-        <v>106.22869530226785</v>
+        <v>8.9450383606090561E-2</v>
       </c>
       <c r="G8">
-        <v>-1.5010103842533792E-3</v>
+        <v>-3.2674737189062995E-4</v>
       </c>
       <c r="H8">
-        <v>2.0484860689510227</v>
+        <v>8.8603903896671221E-2</v>
       </c>
       <c r="I8">
-        <v>14.074580023655049</v>
+        <v>3.7506400809867044E-2</v>
       </c>
       <c r="J8">
-        <v>-10.552154982687879</v>
+        <v>-2.3603891313937909E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.5041534395686513</v>
+        <v>8.0228174599146513E-3</v>
       </c>
       <c r="B9">
-        <v>201.83815673257831</v>
+        <v>1.879976129726111E-2</v>
       </c>
       <c r="C9">
-        <v>390.74598727560573</v>
+        <v>1.7058332836921927E-2</v>
       </c>
       <c r="D9">
-        <v>4977.3109443645426</v>
+        <v>1.1534474315720524E-2</v>
       </c>
       <c r="E9">
-        <v>21.484656612289122</v>
+        <v>1.7789397601107485E-2</v>
       </c>
       <c r="F9">
-        <v>743.13634752874157</v>
+        <v>3.8553069979247324E-2</v>
       </c>
       <c r="G9">
-        <v>0.49440448959522248</v>
+        <v>6.6307234553848121E-3</v>
       </c>
       <c r="H9">
-        <v>14.074580023655049</v>
+        <v>3.7506400809867044E-2</v>
       </c>
       <c r="I9">
-        <v>229.52652546662011</v>
+        <v>3.7683647385401753E-2</v>
       </c>
       <c r="J9">
-        <v>-31.291596273725421</v>
+        <v>-4.3124122049784724E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-53.224689110137646</v>
+        <v>-4.7765116138354526E-2</v>
       </c>
       <c r="B10">
-        <v>140.72544334705464</v>
+        <v>1.1002571221228819E-2</v>
       </c>
       <c r="C10">
-        <v>38.157539011915183</v>
+        <v>1.3982824712937402E-3</v>
       </c>
       <c r="D10">
-        <v>-13250.22613870321</v>
+        <v>-2.5775008843957125E-2</v>
       </c>
       <c r="E10">
-        <v>15.588011576488917</v>
+        <v>1.0834179934270339E-2</v>
       </c>
       <c r="F10">
-        <v>-552.49229672567867</v>
+        <v>-2.4059643582785308E-2</v>
       </c>
       <c r="G10">
-        <v>0.35276284711248257</v>
+        <v>3.9713105354018839E-3</v>
       </c>
       <c r="H10">
-        <v>-10.552154982687879</v>
+        <v>-2.3603891313937909E-2</v>
       </c>
       <c r="I10">
-        <v>-31.291596273725421</v>
+        <v>-4.3124122049784724E-3</v>
       </c>
       <c r="J10">
-        <v>720.88514310492212</v>
+        <v>8.339329285030167E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD\IAD_Lab_1\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710210B-25BE-454B-A6D9-F484EEE4CF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D8F92-1548-467D-9F0D-68413AAD54F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,322 +347,322 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.13684728965076493</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="B1">
-        <v>-4.2936649931732941E-2</v>
+        <v>-0.40208849900840454</v>
       </c>
       <c r="C1">
-        <v>-4.1904021269444862E-2</v>
+        <v>-0.40234947150697681</v>
       </c>
       <c r="D1">
-        <v>-2.5074788193824353E-2</v>
+        <v>-0.25420808115965637</v>
       </c>
       <c r="E1">
-        <v>-4.2144190316953038E-2</v>
+        <v>-0.39922572515965277</v>
       </c>
       <c r="F1">
-        <v>5.2032677254039483E-2</v>
+        <v>0.45966213243978277</v>
       </c>
       <c r="G1">
-        <v>-1.4240098920783805E-3</v>
+        <v>-1.3131344106833275E-2</v>
       </c>
       <c r="H1">
-        <v>5.454986260348018E-2</v>
+        <v>0.49539216338846959</v>
       </c>
       <c r="I1">
-        <v>8.0228174599146513E-3</v>
+        <v>0.11172036480018675</v>
       </c>
       <c r="J1">
-        <v>-4.7765116138354526E-2</v>
+        <v>-0.44712317091453835</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-4.2936649931732941E-2</v>
+        <v>-0.40208849900840454</v>
       </c>
       <c r="B2">
-        <v>8.3325285417222825E-2</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="C2">
-        <v>7.7073012784778391E-2</v>
+        <v>0.9483742743878002</v>
       </c>
       <c r="D2">
-        <v>7.6479062085961051E-3</v>
+        <v>9.9362915873121391E-2</v>
       </c>
       <c r="E2">
-        <v>8.2201965666564222E-2</v>
+        <v>0.997913049696869</v>
       </c>
       <c r="F2">
-        <v>-3.2752980893992804E-3</v>
+        <v>-3.7080286597139453E-2</v>
       </c>
       <c r="G2">
-        <v>1.1886906104814595E-2</v>
+        <v>0.14047359705570392</v>
       </c>
       <c r="H2">
-        <v>-7.7955818913822512E-3</v>
+        <v>-9.0726405414593772E-2</v>
       </c>
       <c r="I2">
-        <v>1.879976129726111E-2</v>
+        <v>0.33549609097920935</v>
       </c>
       <c r="J2">
-        <v>1.1002571221228819E-2</v>
+        <v>0.13198975484267375</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-4.1904021269444862E-2</v>
+        <v>-0.40234947150697681</v>
       </c>
       <c r="B3">
-        <v>7.7073012784778391E-2</v>
+        <v>0.9483742743878002</v>
       </c>
       <c r="C3">
-        <v>7.9262603313462215E-2</v>
+        <v>0.99999999999999822</v>
       </c>
       <c r="D3">
-        <v>1.8240638332720348E-2</v>
+        <v>0.24298308722814629</v>
       </c>
       <c r="E3">
-        <v>7.603683579823288E-2</v>
+        <v>0.94643060069703677</v>
       </c>
       <c r="F3">
-        <v>-1.9848810236773149E-3</v>
+        <v>-2.3039920110677854E-2</v>
       </c>
       <c r="G3">
-        <v>3.8788106266051765E-3</v>
+        <v>4.6997925313160355E-2</v>
       </c>
       <c r="H3">
-        <v>-8.2021119116517521E-3</v>
+        <v>-9.7873494734486657E-2</v>
       </c>
       <c r="I3">
-        <v>1.7058332836921927E-2</v>
+        <v>0.31212312910690765</v>
       </c>
       <c r="J3">
-        <v>1.3982824712937402E-3</v>
+        <v>1.719868276877903E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-2.5074788193824353E-2</v>
+        <v>-0.25420808115965637</v>
       </c>
       <c r="B4">
-        <v>7.6479062085961051E-3</v>
+        <v>9.9362915873121391E-2</v>
       </c>
       <c r="C4">
-        <v>1.8240638332720348E-2</v>
+        <v>0.24298308722814629</v>
       </c>
       <c r="D4">
-        <v>7.1098369504976028E-2</v>
+        <v>1.0000000000000024</v>
       </c>
       <c r="E4">
-        <v>6.52583095067958E-3</v>
+        <v>8.5763975258117922E-2</v>
       </c>
       <c r="F4">
-        <v>1.609611432027807E-2</v>
+        <v>0.19727492302504654</v>
       </c>
       <c r="G4">
-        <v>4.6222911542500456E-3</v>
+        <v>5.9134612242267771E-2</v>
       </c>
       <c r="H4">
-        <v>9.7222946573662459E-3</v>
+        <v>0.12249335505328843</v>
       </c>
       <c r="I4">
-        <v>1.1534474315720524E-2</v>
+        <v>0.22283916376721935</v>
       </c>
       <c r="J4">
-        <v>-2.5775008843957125E-2</v>
+        <v>-0.33473678534720513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-4.2144190316953038E-2</v>
+        <v>-0.39922572515965277</v>
       </c>
       <c r="B5">
-        <v>8.2201965666564222E-2</v>
+        <v>0.997913049696869</v>
       </c>
       <c r="C5">
-        <v>7.603683579823288E-2</v>
+        <v>0.94643060069703677</v>
       </c>
       <c r="D5">
-        <v>6.52583095067958E-3</v>
+        <v>8.5763975258117922E-2</v>
       </c>
       <c r="E5">
-        <v>8.1433329497313328E-2</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="F5">
-        <v>-4.2562480435373038E-3</v>
+        <v>-4.8742352823826766E-2</v>
       </c>
       <c r="G5">
-        <v>1.0935048380979123E-2</v>
+        <v>0.13071754690045018</v>
       </c>
       <c r="H5">
-        <v>-8.5144903365562217E-3</v>
+        <v>-0.1002377090764764</v>
       </c>
       <c r="I5">
-        <v>1.7789397601107485E-2</v>
+        <v>0.32113207117151565</v>
       </c>
       <c r="J5">
-        <v>1.0834179934270339E-2</v>
+        <v>0.13147082459376028</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.2032677254039483E-2</v>
+        <v>0.45966213243978277</v>
       </c>
       <c r="B6">
-        <v>-3.2752980893992804E-3</v>
+        <v>-3.7080286597139453E-2</v>
       </c>
       <c r="C6">
-        <v>-1.9848810236773149E-3</v>
+        <v>-2.3039920110677854E-2</v>
       </c>
       <c r="D6">
-        <v>1.609611432027807E-2</v>
+        <v>0.19727492302504654</v>
       </c>
       <c r="E6">
-        <v>-4.2562480435373038E-3</v>
+        <v>-4.8742352823826766E-2</v>
       </c>
       <c r="F6">
-        <v>9.3635102322825833E-2</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="G6">
-        <v>-6.1875007566759073E-4</v>
+        <v>-6.8977936236466475E-3</v>
       </c>
       <c r="H6">
-        <v>8.9450383606090561E-2</v>
+        <v>0.98205640841977426</v>
       </c>
       <c r="I6">
-        <v>3.8553069979247324E-2</v>
+        <v>0.6490275859522906</v>
       </c>
       <c r="J6">
-        <v>-2.4059643582785308E-2</v>
+        <v>-0.27227281621090732</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-1.4240098920783805E-3</v>
+        <v>-1.3131344106833275E-2</v>
       </c>
       <c r="B7">
-        <v>1.1886906104814595E-2</v>
+        <v>0.14047359705570392</v>
       </c>
       <c r="C7">
-        <v>3.8788106266051765E-3</v>
+        <v>4.6997925313160355E-2</v>
       </c>
       <c r="D7">
-        <v>4.6222911542500456E-3</v>
+        <v>5.9134612242267771E-2</v>
       </c>
       <c r="E7">
-        <v>1.0935048380979123E-2</v>
+        <v>0.13071754690045018</v>
       </c>
       <c r="F7">
-        <v>-6.1875007566759073E-4</v>
+        <v>-6.8977936236466475E-3</v>
       </c>
       <c r="G7">
-        <v>8.5935270374796452E-2</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H7">
-        <v>-3.2674737189062995E-4</v>
+        <v>-3.7445527298461834E-3</v>
       </c>
       <c r="I7">
-        <v>6.6307234553848121E-3</v>
+        <v>0.11651953044842359</v>
       </c>
       <c r="J7">
-        <v>3.9713105354018839E-3</v>
+        <v>4.6911850298547199E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.454986260348018E-2</v>
+        <v>0.49539216338846959</v>
       </c>
       <c r="B8">
-        <v>-7.7955818913822512E-3</v>
+        <v>-9.0726405414593772E-2</v>
       </c>
       <c r="C8">
-        <v>-8.2021119116517521E-3</v>
+        <v>-9.7873494734486657E-2</v>
       </c>
       <c r="D8">
-        <v>9.7222946573662459E-3</v>
+        <v>0.12249335505328843</v>
       </c>
       <c r="E8">
-        <v>-8.5144903365562217E-3</v>
+        <v>-0.1002377090764764</v>
       </c>
       <c r="F8">
-        <v>8.9450383606090561E-2</v>
+        <v>0.98205640841977426</v>
       </c>
       <c r="G8">
-        <v>-3.2674737189062995E-4</v>
+        <v>-3.7445527298461834E-3</v>
       </c>
       <c r="H8">
-        <v>8.8603903896671221E-2</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I8">
-        <v>3.7506400809867044E-2</v>
+        <v>0.64908637960851234</v>
       </c>
       <c r="J8">
-        <v>-2.3603891313937909E-2</v>
+        <v>-0.27459436213431043</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8.0228174599146513E-3</v>
+        <v>0.11172036480018675</v>
       </c>
       <c r="B9">
-        <v>1.879976129726111E-2</v>
+        <v>0.33549609097920935</v>
       </c>
       <c r="C9">
-        <v>1.7058332836921927E-2</v>
+        <v>0.31212312910690765</v>
       </c>
       <c r="D9">
-        <v>1.1534474315720524E-2</v>
+        <v>0.22283916376721935</v>
       </c>
       <c r="E9">
-        <v>1.7789397601107485E-2</v>
+        <v>0.32113207117151565</v>
       </c>
       <c r="F9">
-        <v>3.8553069979247324E-2</v>
+        <v>0.6490275859522906</v>
       </c>
       <c r="G9">
-        <v>6.6307234553848121E-3</v>
+        <v>0.11651953044842359</v>
       </c>
       <c r="H9">
-        <v>3.7506400809867044E-2</v>
+        <v>0.64908637960851234</v>
       </c>
       <c r="I9">
-        <v>3.7683647385401753E-2</v>
+        <v>0.9999999999999919</v>
       </c>
       <c r="J9">
-        <v>-4.3124122049784724E-3</v>
+        <v>-7.6926901403579648E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-4.7765116138354526E-2</v>
+        <v>-0.44712317091453835</v>
       </c>
       <c r="B10">
-        <v>1.1002571221228819E-2</v>
+        <v>0.13198975484267375</v>
       </c>
       <c r="C10">
-        <v>1.3982824712937402E-3</v>
+        <v>1.719868276877903E-2</v>
       </c>
       <c r="D10">
-        <v>-2.5775008843957125E-2</v>
+        <v>-0.33473678534720513</v>
       </c>
       <c r="E10">
-        <v>1.0834179934270339E-2</v>
+        <v>0.13147082459376028</v>
       </c>
       <c r="F10">
-        <v>-2.4059643582785308E-2</v>
+        <v>-0.27227281621090732</v>
       </c>
       <c r="G10">
-        <v>3.9713105354018839E-3</v>
+        <v>4.6911850298547199E-2</v>
       </c>
       <c r="H10">
-        <v>-2.3603891313937909E-2</v>
+        <v>-0.27459436213431043</v>
       </c>
       <c r="I10">
-        <v>-4.3124122049784724E-3</v>
+        <v>-7.6926901403579648E-2</v>
       </c>
       <c r="J10">
-        <v>8.339329285030167E-2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
